--- a/data/all_p4.xlsx
+++ b/data/all_p4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>파일명</t>
   </si>
@@ -25,13 +25,7 @@
     <t>metadata</t>
   </si>
   <si>
-    <t>04_250318-23-29_약-6_merged.md</t>
-  </si>
-  <si>
-    <t>04_250318-23-29_차트2_표1_merged.md</t>
-  </si>
-  <si>
-    <t>04_250318-23-29_모니터1p_merged.md</t>
+    <t>04_250319-09-28_약-6_merged.md</t>
   </si>
   <si>
     <t>서 사용되어야 한다.
@@ -71,181 +65,6 @@
 개개의 안전성·유효성 결과 요약표와 상호참조가 되게 하고 중복기재를 피한다.</t>
   </si>
   <si>
-    <t>![](./Items/1_page_1_figure_1.png)
-*첨단소재 그린
-고성장 '반도체/전력반도체/ GREEN 산업의 성장 거점 선점
-배터리' 핵심 소재 선제적 투자로 및 넷제로 실현을 위한 탈탄소
-기존 사업과의 시너지 창출 및 기술 기업 자산 확보
-고성장 소재 포트폴리오 확대
-가속화 투자 자산
-TerraPower, Plug Power,
-Monolith, Atom Power,
-투자자산
-Lunar Energy, Fulcrum,
-* SK스페셜티, SK실트론,
-Joyvio, PerfectDay,
-Wason, SES AI, 3.9 조원 1.9 조원 Nature's Fynd,
-SK시그넷, SK파워텍
-Wildtype
-8.6조원
-바이오 디지털
-혁신 신약 개발과 디지털 혁신을 선도하는
-더불어 CDMO를 아우르는 새로운 주력 사업 영역
-바이오 및 합성 의약품 2.0 조원 0.8 조원 후보군 발굴 및 신기술 투자
-전 밸류체인 사업으로의
-영역 확대 투자 자산
-Socar, Chindata,
-Dat</t>
-  </si>
-  <si>
-    <t>로운 주력 사업 영역
-바이오 및 합성 의약품 2.0 조원 0.8 조원 후보군 발굴 및 신기술 투자
-전 밸류체인 사업으로의
-영역 확대 투자 자산
-Socar, Chindata,
-DataRobot, Soft Berry,
-투자자산
-Geminus AI, A4X
-· CBM, ProteoVant, Standigm, 0
-Hummingbird, Yposkesi*
-#### ESG 기반 4대 핵심 영역 포트폴리오
-· 2022년까지 누적 투자 금액(성장 영역Inc. 직접 투자 자산)으로 합병 비용 포함 및 Divest 금액 제외
-5. 주택을 소유한 사람과 차입금을 차입한 사람이 다를 경우에도 장기주택저당차입금
-이자상환액 공제를 적용받을 수 있는지?
-| 주택소유자 | 차입자 | 공제여부 |
-| --- | --- | --- |
-| 본인 | 본인 | ○ |
-| 본인 | 배우자 | x |
-| 본인 | 본인 + 배우자 | 본인 부담분만* |
-| 본인 + 배우자 | 본인 |  |
-| 본인 + 제3자 | 본인 + 제</t>
-  </si>
-  <si>
-    <t>본인 | 본인 | ○ |
-| 본인 | 배우자 | x |
-| 본인 | 본인 + 배우자 | 본인 부담분만* |
-| 본인 + 배우자 | 본인 |  |
-| 본인 + 제3자 | 본인 + 제3자 | 본인 부담분만* |
-| 배우자 | 본인 | x |
-**주택 소유자와 차입자에 따른 공제여부는 아래와 같습니다.**
-![id_5](./Items/5_page_1_table_1.png)
-```markdown
-| 주택소유자       | 차입자         | 공제여부       |
-|----------------|--------------|--------------|
-| 본인           | 본인         | ○            |
-| 본인           | 배우자       | x            |
-| 본인           | 본인 + 배우자 | 본인 부담분만* |
-| 본인 + 배우자  | 본인         | ○            |
-| 본인 + 제3자   | 본인</t>
-  </si>
-  <si>
-    <t>| 본인           | 본인 + 배우자 | 본인 부담분만* |
-| 본인 + 배우자  | 본인         | ○            |
-| 본인 + 제3자   | 본인 + 제3자 | 본인 부담분만* |
-| 배우자         | 본인         | x            |
-```
-* 차입금을 타인과 공동으로 차입한 경우 본인의 채무부담분에 해당하는 이자상환액만 공제함, 별도의 약정이 없는 경우에는 채무분담비율이 균등한 것으로 봄.
-· 차입금을 타인과 공동으로 차입한 경우 본인의 채무부담분에 해당하는 이자상환액만 공제함, 별
-도의 약정이 없는 경우에는 채무분담비율이 균등한 것으로 봄
-규모별 월 급여 분석 (생산직)
-![](./Items/8_page_1_chart_1.png)
-#### Chart Type: bar
-|  | 2009 | 2010 | 2011 | 2012 | 2013 | 2014 | 2015 |
-| --- | --- | --- | --- | --- |</t>
-  </si>
-  <si>
-    <t>art Type: bar
-|  | 2009 | 2010 | 2011 | 2012 | 2013 | 2014 | 2015 |
-| --- | --- | --- | --- | --- | --- | --- | --- |
-| item_01 | 9% | 6% | 3% | 5% | 4% | 3% | 13% |</t>
-  </si>
-  <si>
-    <t>102 2025년 02월 스마트미디어저널
-Smart Media Journal / Vol.14, No.2 / ISSN:2287-1322
-https://ck.dolorg/1030693/SMU2025.142.102
-| VR을 이용한 EMDR의 양측성 미치는 영향에 관한 연구: 비교 연구 | 안구운동이 우울증 감소에 모니터와 HMD를 이용한 베타파 |
-| --- | --- |
-| (A Study on the Effects of Bilateral Eye Movement in Depression Reduction: A Comparative Analysis of Beta | VR-Based EMDR on Waves Using Monitor and HMD) |
-| 장성복*, 서정호** (Sung-Bok Chang, Jung-Ho Suh) |  |
-![id_2](./Items/2_page_1_table_1.png)
-```markdown
-| VR을 이용한 EMDR의 양측성 안구운동이 우울증 감소에</t>
-  </si>
-  <si>
-    <t>g-Ho Suh) |  |
-![id_2](./Items/2_page_1_table_1.png)
-```markdown
-| VR을 이용한 EMDR의 양측성 안구운동이 우울증 감소에 미치는 영향에 관한 연구: 모니터와 HMD를 이용한 베타파 비교 연구 |
-| --- |
-| (A Study on the Effects of Bilateral Eye Movement in VR-Based EMDR on Depression Reduction: A Comparative Analysis of Beta Waves Using Monitor and HMD) |
-| 장성복*, 서정호** (Sung-Bok Chang, Jung-Ho Suh) |
-```
-요 약
-본 연구는 주로 모니터를 통해 시행되는 EMDR(안구운동 민감소실 및 재처리 요법) 치료 방식에서, 가상
-현실(VR)을 이용한 새로운 접근법의 잠재력을 탐구하기 위해 수행되었다. 이를 검정하기 위해, 경기도에 위치
-한 G대학교 학생들을 대상으로 우울</t>
-  </si>
-  <si>
-    <t>처리 요법) 치료 방식에서, 가상
-현실(VR)을 이용한 새로운 접근법의 잠재력을 탐구하기 위해 수행되었다. 이를 검정하기 위해, 경기도에 위치
-한 G대학교 학생들을 대상으로 우울 척도(CES-D)를 사용하여 우울증 수준을 측정했다. CES-D 점수가 25
-점 이상으로 심각한 우울 상태를 나타낸 16명이 실험에 포함되었으며(내적 일관성 = .71), 이들은 모니터와
-VR을 사용한 EMDR 치료 실험에 참여했다. 실험 중에는 EEG 장비를 사용해 오른쪽 반구의 베타파 변화를
-관찰했다. 데이터는 SPSS 27을 사용해 짝지어진 표본 T-검정으로 분석되었다. 검증 결과, VR HMD를 이용
-한 EMDR 치료(M=4.67)가 전통적인 모니터 기반 EMDR 치료(M=5.60)보다 베타파 점수가 낮게 나타나,
-VR을 활용한 EMDR 치료의 새로운 가능성을 확인하였다.
-■ 중심어 : VR ; EMDR ; EEG ; 우울증 ; 베타파
-Abstract
-This study was conducted to</t>
-  </si>
-  <si>
-    <t>용한 EMDR 치료의 새로운 가능성을 확인하였다.
-■ 중심어 : VR ; EMDR ; EEG ; 우울증 ; 베타파
-Abstract
-This study was conducted to explore the potential of a novel approach to EMDR (Eye
-Movement Desensitization and Reprocessing) therapy using virtual reality (VR), which is
-traditionally administered via monitors. To test this, the depression level of students at G
-University, located in Gyeonggi Province, was measured using the Center for Epidemiologic
-Studies Depression Scale (CES-D). Sixteen participants with CES-D scores</t>
-  </si>
-  <si>
-    <t>e Center for Epidemiologic
-Studies Depression Scale (CES-D). Sixteen participants with CES-D scores of 25 or higher,
-indicating severe depression (internal consistency = .71), were included in the experiment.
-They participated in EMDR therapy sessions conducted using both monitors and VR. During
-the experiment, EEG equipment was used to observe beta wave changes in the right
-hemisphere. The data were analyzed using paired sample t-tests with SPSS 27. The results
-showed that EMDR therapy using a</t>
-  </si>
-  <si>
-    <t>ere analyzed using paired sample t-tests with SPSS 27. The results
-showed that EMDR therapy using a VR HMD (M=4.67) had lower beta wave scores compared
-to traditional monitor-based EMDR therapy (M=5.60), confirming the new potential of
-VR-based EMDR therapy.
-keywords : VR ; EMDR ; EEG ; Depression ; Beta waves
-I. 서 론
-우울증은 현재 전 세계적으로 가장 널리 퍼져
-있는 정신 건강 문제 중 하나로, 수많은 사람들
-에게 심각한 영향을 미치고 있다. 우울증은 일상
-생활의 기능을 저하시킬 뿐만 아니라 삶의 질을
-크게 떨어뜨리며, 만성화될 경우 사회적, 경제적
-비용을 유발할 수 있다[1]. 이러한 이유로 우울
-증 치료에서 약물치료와 심리치료 외에</t>
-  </si>
-  <si>
-    <t>의 기능을 저하시킬 뿐만 아니라 삶의 질을
-크게 떨어뜨리며, 만성화될 경우 사회적, 경제적
-비용을 유발할 수 있다[1]. 이러한 이유로 우울
-증 치료에서 약물치료와 심리치료 외에 다미술
-치료, 음악치료, 원예치료, 인지행동치료 등과
-같은 다양한 치료 방법이 우울증과 스트레스 감
-소에 효과적임이 보고되고 있다[2].
-*정회원, 청주대학교 디지털미디어디자인학과
-** 정회원, 가천대학교 미디어커뮤니케이션학과 kc
-접수일자 : 2024년 11월 17일 게재확정일 : 2025년 01월 27일
-수정일자 : 2024년 01월 05일 교신저자 : 서정호 e-mail : hoseo@gachon.ac.kr</t>
-  </si>
-  <si>
     <t>{"elementId": "", "page_content": "서 사용되어야 한다.\n· 필요하다면 신청사항에 따라(예. 「의약품의 품목허가·신고·심사 규정」 (식약처 고시)\n제25조제2항제7호 중 단순정보 변경) 안유검토서는 변경이 가능하다.\n3.3. 안유검토서 작성에 관한 사항\n3.3.1. 일반원칙\n안유검토서는 다음의 4가지 중요한 원칙에 따른다.\n· 식약처내 안유심사자 및 다른 부서간 협력과 원활한 의사소통을 위하여, 안유검토서의\n내용은 과학적·임상적·규제적 쟁점사항과 검토절차에 따라 논리적인 흐름이 있도록\n기술하여야 한다.\n품목허가(변경허가를 포함) 신청 시 안유심사 품질을 최적화하기 위하여 심사 시\n대두되는 중요한 쟁점사항은 심사부내 심층검토(peer review)를 통하여 다른 심사자와\n소통함으로서 이를 공유하도록 한다.\n시간과 노력을 최대한 효율적으로 활용하기 위하여 안유심사는 중요한 쟁점사항들과\n심사절차의 시간 관리에 초점을 맞추어야 한다.\n과학적 심사에 대한 엄격한 준수와 양질의 심사를 위하여 안유심사는 독성학, 약리학,\n임상약리"}</t>
   </si>
   <si>
@@ -253,42 +72,6 @@
   </si>
   <si>
     <t>{"elementId": "", "page_content": "이해할 수 있도록 한다. 이러한 경우 심사자는 개요를 작성할 때\n개개의 안전성·유효성 결과 요약표와 상호참조가 되게 하고 중복기재를 피한다."}</t>
-  </si>
-  <si>
-    <t>{"elementId": "", "page_content": "![](./Items/1_page_1_figure_1.png)\n*첨단소재 그린\n고성장 '반도체/전력반도체/ GREEN 산업의 성장 거점 선점\n배터리' 핵심 소재 선제적 투자로 및 넷제로 실현을 위한 탈탄소\n기존 사업과의 시너지 창출 및 기술 기업 자산 확보\n고성장 소재 포트폴리오 확대\n가속화 투자 자산\nTerraPower, Plug Power,\nMonolith, Atom Power,\n투자자산\nLunar Energy, Fulcrum,\n* SK스페셜티, SK실트론,\nJoyvio, PerfectDay,\nWason, SES AI, 3.9 조원 1.9 조원 Nature's Fynd,\nSK시그넷, SK파워텍\nWildtype\n8.6조원\n바이오 디지털\n혁신 신약 개발과 디지털 혁신을 선도하는\n더불어 CDMO를 아우르는 새로운 주력 사업 영역\n바이오 및 합성 의약품 2.0 조원 0.8 조원 후보군 발굴 및 신기술 투자\n전 밸류체인 사업으로의\n영역 확대 투자 자산\nSocar, Chindata,\nDat"}</t>
-  </si>
-  <si>
-    <t>{"elementId": "", "page_content": "로운 주력 사업 영역\n바이오 및 합성 의약품 2.0 조원 0.8 조원 후보군 발굴 및 신기술 투자\n전 밸류체인 사업으로의\n영역 확대 투자 자산\nSocar, Chindata,\nDataRobot, Soft Berry,\n투자자산\nGeminus AI, A4X\n· CBM, ProteoVant, Standigm, 0\nHummingbird, Yposkesi*\n#### ESG 기반 4대 핵심 영역 포트폴리오\n· 2022년까지 누적 투자 금액(성장 영역Inc. 직접 투자 자산)으로 합병 비용 포함 및 Divest 금액 제외\n5. 주택을 소유한 사람과 차입금을 차입한 사람이 다를 경우에도 장기주택저당차입금\n이자상환액 공제를 적용받을 수 있는지?\n| 주택소유자 | 차입자 | 공제여부 |\n| --- | --- | --- |\n| 본인 | 본인 | ○ |\n| 본인 | 배우자 | x |\n| 본인 | 본인 + 배우자 | 본인 부담분만* |\n| 본인 + 배우자 | 본인 |  |\n| 본인 + 제3자 | 본인 + 제"}</t>
-  </si>
-  <si>
-    <t>{"elementId": "", "page_content": "본인 | 본인 | ○ |\n| 본인 | 배우자 | x |\n| 본인 | 본인 + 배우자 | 본인 부담분만* |\n| 본인 + 배우자 | 본인 |  |\n| 본인 + 제3자 | 본인 + 제3자 | 본인 부담분만* |\n| 배우자 | 본인 | x |\n**주택 소유자와 차입자에 따른 공제여부는 아래와 같습니다.**\n![id_5](./Items/5_page_1_table_1.png)\n\n```markdown\n| 주택소유자       | 차입자         | 공제여부       |\n|----------------|--------------|--------------|\n| 본인           | 본인         | ○            |\n| 본인           | 배우자       | x            |\n| 본인           | 본인 + 배우자 | 본인 부담분만* |\n| 본인 + 배우자  | 본인         | ○            |\n| 본인 + 제3자   | 본인"}</t>
-  </si>
-  <si>
-    <t>{"elementId": "", "page_content": "| 본인           | 본인 + 배우자 | 본인 부담분만* |\n| 본인 + 배우자  | 본인         | ○            |\n| 본인 + 제3자   | 본인 + 제3자 | 본인 부담분만* |\n| 배우자         | 본인         | x            |\n```\n\n* 차입금을 타인과 공동으로 차입한 경우 본인의 채무부담분에 해당하는 이자상환액만 공제함, 별도의 약정이 없는 경우에는 채무분담비율이 균등한 것으로 봄.\n\n· 차입금을 타인과 공동으로 차입한 경우 본인의 채무부담분에 해당하는 이자상환액만 공제함, 별\n도의 약정이 없는 경우에는 채무분담비율이 균등한 것으로 봄\n규모별 월 급여 분석 (생산직)\n![](./Items/8_page_1_chart_1.png)\n#### Chart Type: bar\n|  | 2009 | 2010 | 2011 | 2012 | 2013 | 2014 | 2015 |\n| --- | --- | --- | --- | --- |"}</t>
-  </si>
-  <si>
-    <t>{"elementId": "", "page_content": "art Type: bar\n|  | 2009 | 2010 | 2011 | 2012 | 2013 | 2014 | 2015 |\n| --- | --- | --- | --- | --- | --- | --- | --- |\n| item_01 | 9% | 6% | 3% | 5% | 4% | 3% | 13% |"}</t>
-  </si>
-  <si>
-    <t>{"elementId": "", "page_content": "102 2025년 02월 스마트미디어저널\nSmart Media Journal / Vol.14, No.2 / ISSN:2287-1322\nhttps://ck.dolorg/1030693/SMU2025.142.102\n| VR을 이용한 EMDR의 양측성 미치는 영향에 관한 연구: 비교 연구 | 안구운동이 우울증 감소에 모니터와 HMD를 이용한 베타파 |\n| --- | --- |\n| (A Study on the Effects of Bilateral Eye Movement in Depression Reduction: A Comparative Analysis of Beta | VR-Based EMDR on Waves Using Monitor and HMD) |\n| 장성복*, 서정호** (Sung-Bok Chang, Jung-Ho Suh) |  |\n![id_2](./Items/2_page_1_table_1.png)\n\n```markdown\n| VR을 이용한 EMDR의 양측성 안구운동이 우울증 감소에"}</t>
-  </si>
-  <si>
-    <t>{"elementId": "", "page_content": "g-Ho Suh) |  |\n![id_2](./Items/2_page_1_table_1.png)\n\n```markdown\n| VR을 이용한 EMDR의 양측성 안구운동이 우울증 감소에 미치는 영향에 관한 연구: 모니터와 HMD를 이용한 베타파 비교 연구 |\n| --- |\n| (A Study on the Effects of Bilateral Eye Movement in VR-Based EMDR on Depression Reduction: A Comparative Analysis of Beta Waves Using Monitor and HMD) |\n| 장성복*, 서정호** (Sung-Bok Chang, Jung-Ho Suh) |\n```\n\n요 약\n본 연구는 주로 모니터를 통해 시행되는 EMDR(안구운동 민감소실 및 재처리 요법) 치료 방식에서, 가상\n현실(VR)을 이용한 새로운 접근법의 잠재력을 탐구하기 위해 수행되었다. 이를 검정하기 위해, 경기도에 위치\n한 G대학교 학생들을 대상으로 우울"}</t>
-  </si>
-  <si>
-    <t>{"elementId": "", "page_content": "처리 요법) 치료 방식에서, 가상\n현실(VR)을 이용한 새로운 접근법의 잠재력을 탐구하기 위해 수행되었다. 이를 검정하기 위해, 경기도에 위치\n한 G대학교 학생들을 대상으로 우울 척도(CES-D)를 사용하여 우울증 수준을 측정했다. CES-D 점수가 25\n점 이상으로 심각한 우울 상태를 나타낸 16명이 실험에 포함되었으며(내적 일관성 = .71), 이들은 모니터와\nVR을 사용한 EMDR 치료 실험에 참여했다. 실험 중에는 EEG 장비를 사용해 오른쪽 반구의 베타파 변화를\n관찰했다. 데이터는 SPSS 27을 사용해 짝지어진 표본 T-검정으로 분석되었다. 검증 결과, VR HMD를 이용\n한 EMDR 치료(M=4.67)가 전통적인 모니터 기반 EMDR 치료(M=5.60)보다 베타파 점수가 낮게 나타나,\nVR을 활용한 EMDR 치료의 새로운 가능성을 확인하였다.\n■ 중심어 : VR ; EMDR ; EEG ; 우울증 ; 베타파\nAbstract\nThis study was conducted to"}</t>
-  </si>
-  <si>
-    <t>{"elementId": "", "page_content": "용한 EMDR 치료의 새로운 가능성을 확인하였다.\n■ 중심어 : VR ; EMDR ; EEG ; 우울증 ; 베타파\nAbstract\nThis study was conducted to explore the potential of a novel approach to EMDR (Eye\nMovement Desensitization and Reprocessing) therapy using virtual reality (VR), which is\ntraditionally administered via monitors. To test this, the depression level of students at G\nUniversity, located in Gyeonggi Province, was measured using the Center for Epidemiologic\nStudies Depression Scale (CES-D). Sixteen participants with CES-D scores"}</t>
-  </si>
-  <si>
-    <t>{"elementId": "", "page_content": "e Center for Epidemiologic\nStudies Depression Scale (CES-D). Sixteen participants with CES-D scores of 25 or higher,\nindicating severe depression (internal consistency = .71), were included in the experiment.\nThey participated in EMDR therapy sessions conducted using both monitors and VR. During\nthe experiment, EEG equipment was used to observe beta wave changes in the right\nhemisphere. The data were analyzed using paired sample t-tests with SPSS 27. The results\nshowed that EMDR therapy using a"}</t>
-  </si>
-  <si>
-    <t>{"elementId": "", "page_content": "ere analyzed using paired sample t-tests with SPSS 27. The results\nshowed that EMDR therapy using a VR HMD (M=4.67) had lower beta wave scores compared\nto traditional monitor-based EMDR therapy (M=5.60), confirming the new potential of\nVR-based EMDR therapy.\nkeywords : VR ; EMDR ; EEG ; Depression ; Beta waves\nI. 서 론\n우울증은 현재 전 세계적으로 가장 널리 퍼져\n있는 정신 건강 문제 중 하나로, 수많은 사람들\n에게 심각한 영향을 미치고 있다. 우울증은 일상\n생활의 기능을 저하시킬 뿐만 아니라 삶의 질을\n크게 떨어뜨리며, 만성화될 경우 사회적, 경제적\n비용을 유발할 수 있다[1]. 이러한 이유로 우울\n증 치료에서 약물치료와 심리치료 외에"}</t>
-  </si>
-  <si>
-    <t>{"elementId": "", "page_content": "의 기능을 저하시킬 뿐만 아니라 삶의 질을\n크게 떨어뜨리며, 만성화될 경우 사회적, 경제적\n비용을 유발할 수 있다[1]. 이러한 이유로 우울\n증 치료에서 약물치료와 심리치료 외에 다미술\n치료, 음악치료, 원예치료, 인지행동치료 등과\n같은 다양한 치료 방법이 우울증과 스트레스 감\n소에 효과적임이 보고되고 있다[2].\n*정회원, 청주대학교 디지털미디어디자인학과\n** 정회원, 가천대학교 미디어커뮤니케이션학과 kc\n접수일자 : 2024년 11월 17일 게재확정일 : 2025년 01월 27일\n수정일자 : 2024년 01월 05일 교신저자 : 서정호 e-mail : hoseo@gachon.ac.kr"}</t>
   </si>
 </sst>
 </file>
@@ -646,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -668,10 +451,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -679,10 +462,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -690,142 +473,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
